--- a/Daily_Lectures/Day06/AttenuationCurve.xlsx
+++ b/Daily_Lectures/Day06/AttenuationCurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z_FS\3111_3D\2023\COURSE_GIT\INFO3111S23\Daily_Lectures\Day06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E71A1C5B-2C4B-49A5-B66E-82B52CA995A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E938A25-9C10-4661-933F-8EB38D368F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6554CA43-9983-4453-91C0-3D373CF19A8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6554CA43-9983-4453-91C0-3D373CF19A8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,52 +278,52 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64516129032258063</c:v>
+                  <c:v>0.9178522257916476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47619047619047616</c:v>
+                  <c:v>0.84817642069550458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37735849056603776</c:v>
+                  <c:v>0.78833267638943638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.73637702503681879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.69084628670120907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23255813953488372</c:v>
+                  <c:v>0.65061808718282366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2061855670103093</c:v>
+                  <c:v>0.61481709191515521</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18518518518518517</c:v>
+                  <c:v>0.58275058275058267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16806722689075629</c:v>
+                  <c:v>0.5538631957906397</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.52770448548812665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14184397163120568</c:v>
+                  <c:v>0.5039052658100277</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13157894736842105</c:v>
+                  <c:v>0.48216007714561226</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.12269938650306748</c:v>
+                  <c:v>0.46221400508435406</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1149425287356322</c:v>
+                  <c:v>0.44385264092321347</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>0.42689434364994661</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1020408163265306</c:v>
+                  <c:v>0.41118421052631571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,15 +1083,157 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>407377</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>490192</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>221762</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>29307</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>185392</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13528</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D3A401-5702-E2D1-7091-03839E6E46C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325783</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325783</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843D0FE5-A5C6-D80A-9C07-D2EF5807433C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5416826" y="800652"/>
+          <a:ext cx="0" cy="1512957"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320262</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27610</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22085</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED02864-4782-6790-E404-7DEA1D3516E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5411305" y="3274390"/>
+          <a:ext cx="5173870" cy="27608"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>31899</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>453674</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1106,8 +1248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3683977" y="800100"/>
-          <a:ext cx="5300785" cy="886557"/>
+          <a:off x="6337725" y="532848"/>
+          <a:ext cx="5280906" cy="876894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,42 +1311,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D3A401-5702-E2D1-7091-03839E6E46C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1507,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADECDF93-3F13-4226-856B-1DA73A2BC5FB}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1522,7 +1628,7 @@
     <col min="9" max="9" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1572,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f>A2+$L$2</f>
         <v>5</v>
@@ -1583,24 +1689,24 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C18" si="1">A3*$I$3</f>
-        <v>0.5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D18" si="2">A3*$I$4*$I$4</f>
-        <v>0.05</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E18" si="3">1/(B3+C3+D3)</f>
-        <v>0.64516129032258063</v>
+        <v>0.9178522257916476</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f>A3+$L$2</f>
         <v>10</v>
@@ -1611,24 +1717,24 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="3"/>
-        <v>0.47619047619047616</v>
+        <v>0.84817642069550458</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="1">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f>A4+$L$2</f>
         <v>15</v>
@@ -1639,18 +1745,18 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>0.15000000000000002</v>
+        <v>0.25350000000000006</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="3"/>
-        <v>0.37735849056603776</v>
+        <v>0.78833267638943638</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f>A5+$L$2</f>
         <v>20</v>
@@ -1661,18 +1767,18 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="3"/>
-        <v>0.3125</v>
+        <v>0.73637702503681879</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f>A6+$L$2</f>
         <v>25</v>
@@ -1683,18 +1789,18 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.42249999999999999</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="3"/>
-        <v>0.26666666666666666</v>
+        <v>0.69084628670120907</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f>A7+$L$2</f>
         <v>30</v>
@@ -1705,18 +1811,18 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.50700000000000012</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="3"/>
-        <v>0.23255813953488372</v>
+        <v>0.65061808718282366</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <f>A8+$L$2</f>
         <v>35</v>
@@ -1727,18 +1833,18 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>0.35000000000000003</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="3"/>
-        <v>0.2061855670103093</v>
+        <v>0.61481709191515521</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <f>A9+$L$2</f>
         <v>40</v>
@@ -1749,18 +1855,18 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="3"/>
-        <v>0.18518518518518517</v>
+        <v>0.58275058275058267</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f>A10+$L$2</f>
         <v>45</v>
@@ -1771,18 +1877,18 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.76050000000000006</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="3"/>
-        <v>0.16806722689075629</v>
+        <v>0.5538631957906397</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f>A11+$L$2</f>
         <v>50</v>
@@ -1793,18 +1899,18 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="3"/>
-        <v>0.15384615384615385</v>
+        <v>0.52770448548812665</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f>A12+$L$2</f>
         <v>55</v>
@@ -1815,18 +1921,18 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.9295000000000001</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="3"/>
-        <v>0.14184397163120568</v>
+        <v>0.5039052658100277</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f>A13+$L$2</f>
         <v>60</v>
@@ -1837,18 +1943,21 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <v>1.0140000000000002</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="3"/>
-        <v>0.13157894736842105</v>
+        <v>0.48216007714561226</v>
+      </c>
+      <c r="O14">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f>A14+$L$2</f>
         <v>65</v>
@@ -1859,18 +1968,18 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>0.65</v>
+        <v>1.0985000000000003</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="3"/>
-        <v>0.12269938650306748</v>
+        <v>0.46221400508435406</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f>A15+$L$2</f>
         <v>70</v>
@@ -1881,18 +1990,21 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>0.70000000000000007</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="3"/>
-        <v>0.1149425287356322</v>
+        <v>0.44385264092321347</v>
+      </c>
+      <c r="O16">
+        <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f>A16+$L$2</f>
         <v>75</v>
@@ -1903,18 +2015,21 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="3"/>
-        <v>0.10810810810810811</v>
+        <v>0.42689434364994661</v>
+      </c>
+      <c r="O17">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f>A17+$L$2</f>
         <v>80</v>
@@ -1925,15 +2040,18 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>1.3520000000000001</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="3"/>
-        <v>0.1020408163265306</v>
+        <v>0.41118421052631571</v>
+      </c>
+      <c r="O18">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
